--- a/hw02/GoldenSearch.xlsx
+++ b/hw02/GoldenSearch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_NCSU\Fall2019\ECE592_084_Optimization_And_Algorithms\Homeworks\ECE592084_Optimization\hw02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357A39C8-14CE-4AB9-B26A-916B0F062AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87506CF-DD5C-47A9-98D6-EDC097E4D7C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{EDCA9D05-4381-4900-8E32-C1FC35D81561}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDCA9D05-4381-4900-8E32-C1FC35D81561}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Iteration</t>
   </si>
@@ -52,6 +52,75 @@
   </si>
   <si>
     <t>new int</t>
+  </si>
+  <si>
+    <t>[0.4562 -0.5938]</t>
+  </si>
+  <si>
+    <t>[0.5875316 -0.4624684]</t>
+  </si>
+  <si>
+    <t>[0.4562 -0.5938;0.5875316 -0.4624684]</t>
+  </si>
+  <si>
+    <t>[0.6686684 -0.3813316]</t>
+  </si>
+  <si>
+    <t>[0.5875316 -0.4624684;0.6686684 -0.3813316]</t>
+  </si>
+  <si>
+    <t>[0.5373629288 -0.5126370712]</t>
+  </si>
+  <si>
+    <t>[0.5373629288 -0.5126370712;0.5875316 -0.4624684]</t>
+  </si>
+  <si>
+    <t>[0.5063686712 -0.5436313288]</t>
+  </si>
+  <si>
+    <t>[0.5063686712 -0.5436313288;0.5373629288 -0.5126370712]</t>
+  </si>
+  <si>
+    <t>[0.5565273611984 -0.4934726388016]</t>
+  </si>
+  <si>
+    <t>[0.5373629288 -0.5126370712;0.5565273611984 -0.4934726388016]</t>
+  </si>
+  <si>
+    <t>[0.525529290779389 -0.524470709220611]</t>
+  </si>
+  <si>
+    <t>[0.525529290779389 -0.524470709220611;0.5373629288 -0.5126370712]</t>
+  </si>
+  <si>
+    <t>[0.5182084776032 -0.5317915223968]</t>
+  </si>
+  <si>
+    <t>[0.5182084776032 -0.5317915223968;0.525529290779389 -0.524470709220611]</t>
+  </si>
+  <si>
+    <t>[0.530045928442823 -0.519954071557178]</t>
+  </si>
+  <si>
+    <t>[0.525529290779389 -0.524470709220611;0.530045928442823 -0.519954071557178]</t>
+  </si>
+  <si>
+    <t>[0.522730383823936 -0.527269616176064]</t>
+  </si>
+  <si>
+    <t>[0.522730383823936 -0.527269616176064;0.525529290779389 -0.524470709220611]</t>
+  </si>
+  <si>
+    <t>[0.527251390398408 -0.522748609601592]</t>
+  </si>
+  <si>
+    <t>[0.525529290779389 -0.524470709220611;0.527251390398408 -0.522748609601592]</t>
+  </si>
+  <si>
+    <t>[0.524457408335384 -0.525542591664616]</t>
+  </si>
+  <si>
+    <t>[0.524457408335384 -0.525542591664616;0.525529290779389 -0.524470709220611]</t>
   </si>
 </sst>
 </file>
@@ -75,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -83,12 +152,198 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,189 +658,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678CEF8B-91DD-483F-8E39-48894F5B5DBD}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="B1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="73.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E2">
+      <c r="C3" s="8">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8">
         <v>0.28982532000000005</v>
       </c>
-      <c r="F2">
+      <c r="G3" s="8">
         <v>0.28735560299568003</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="H3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E3">
+      <c r="C4" s="1">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.28735560299568003</v>
       </c>
-      <c r="F3">
+      <c r="G4" s="1">
         <v>0.33754682747568004</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E4">
+      <c r="C5" s="1">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.27608352602554154</v>
       </c>
-      <c r="F4">
+      <c r="G5" s="1">
         <v>0.28735560299568003</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E5">
+      <c r="C6" s="1">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.27666637923856113</v>
       </c>
-      <c r="F5">
+      <c r="G6" s="1">
         <v>0.27608352602554154</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E6">
+      <c r="C7" s="1">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.27608352602554154</v>
       </c>
-      <c r="F6">
+      <c r="G7" s="1">
         <v>0.27860692351240318</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E7">
+      <c r="C8" s="1">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.27562584044618749</v>
       </c>
-      <c r="F7">
+      <c r="G8" s="1">
         <v>0.27608352602554154</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E8">
+      <c r="C9" s="1">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.27576337432939874</v>
       </c>
-      <c r="F8">
+      <c r="G9" s="1">
         <v>0.27562584044618749</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="H9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E9">
+      <c r="C10" s="1">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.27562584044618749</v>
       </c>
-      <c r="F9">
+      <c r="G10" s="1">
         <v>0.27570138418155021</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="H10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E10">
+      <c r="C11" s="1">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.27564045347276006</v>
       </c>
-      <c r="F10">
+      <c r="G11" s="1">
         <v>0.27562584044618749</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="H11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E11">
+      <c r="C12" s="1">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1">
         <v>0.27562584044618749</v>
       </c>
-      <c r="F11">
+      <c r="G12" s="1">
         <v>0.27564020627617819</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="H12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E12">
+      <c r="C13" s="5">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5">
         <v>0.27562588321714354</v>
       </c>
-      <c r="F12">
+      <c r="G13" s="5">
         <v>0.27562584044618749</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/hw02/GoldenSearch.xlsx
+++ b/hw02/GoldenSearch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_NCSU\Fall2019\ECE592_084_Optimization_And_Algorithms\Homeworks\ECE592084_Optimization\hw02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87506CF-DD5C-47A9-98D6-EDC097E4D7C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C0B8D3-C288-420B-965C-54734A08DC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDCA9D05-4381-4900-8E32-C1FC35D81561}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{EDCA9D05-4381-4900-8E32-C1FC35D81561}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Iteration</t>
   </si>
@@ -658,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678CEF8B-91DD-483F-8E39-48894F5B5DBD}">
-  <dimension ref="B1:H13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,261 +673,316 @@
     <col min="8" max="8" width="73.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.38200000000000001</v>
+      </c>
       <c r="C2" s="11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.28982532000000005</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.28735560299568003</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.38200000000000001</v>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.28735560299568003</v>
       </c>
       <c r="F3" s="8">
-        <v>0.28982532000000005</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.28735560299568003</v>
+        <v>0.33754682747568004</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.38200000000000001</v>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
+      <c r="E4" s="1">
+        <v>0.27608352602554154</v>
       </c>
       <c r="F4" s="1">
         <v>0.28735560299568003</v>
       </c>
-      <c r="G4" s="1">
-        <v>0.33754682747568004</v>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.38200000000000001</v>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
+      <c r="E5" s="1">
+        <v>0.27666637923856113</v>
       </c>
       <c r="F5" s="1">
         <v>0.27608352602554154</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.28735560299568003</v>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.38200000000000001</v>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.27608352602554154</v>
       </c>
       <c r="F6" s="1">
-        <v>0.27666637923856113</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.27608352602554154</v>
+        <v>0.27860692351240318</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.38200000000000001</v>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
+      <c r="E7" s="1">
+        <v>0.27562584044618749</v>
       </c>
       <c r="F7" s="1">
         <v>0.27608352602554154</v>
       </c>
-      <c r="G7" s="1">
-        <v>0.27860692351240318</v>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.38200000000000001</v>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
+      <c r="E8" s="1">
+        <v>0.27576337432939874</v>
       </c>
       <c r="F8" s="1">
         <v>0.27562584044618749</v>
       </c>
-      <c r="G8" s="1">
-        <v>0.27608352602554154</v>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.38200000000000001</v>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.27562584044618749</v>
       </c>
       <c r="F9" s="1">
-        <v>0.27576337432939874</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.27562584044618749</v>
+        <v>0.27570138418155021</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.38200000000000001</v>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
+      <c r="E10" s="1">
+        <v>0.27564045347276006</v>
       </c>
       <c r="F10" s="1">
         <v>0.27562584044618749</v>
       </c>
-      <c r="G10" s="1">
-        <v>0.27570138418155021</v>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.38200000000000001</v>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.27562584044618749</v>
       </c>
       <c r="F11" s="1">
-        <v>0.27564045347276006</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.27562584044618749</v>
+        <v>0.27564020627617819</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.38200000000000001</v>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
+      <c r="E12" s="1">
+        <v>0.27562588321714354</v>
       </c>
       <c r="F12" s="1">
         <v>0.27562584044618749</v>
       </c>
-      <c r="G12" s="1">
-        <v>0.27564020627617819</v>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>11</v>
       </c>
